--- a/casos_pais.xlsx
+++ b/casos_pais.xlsx
@@ -141,8 +141,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -796,6 +796,18 @@
       <c r="B37" s="0" t="n">
         <v>36</v>
       </c>
+      <c r="C37" s="0" t="n">
+        <v>632</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1178</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>25496</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>53578</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">

--- a/casos_pais.xlsx
+++ b/casos_pais.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Italia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corea.del.Sur</t>
   </si>
 </sst>
 </file>
@@ -139,10 +142,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -169,6 +172,9 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -183,6 +189,9 @@
       <c r="F2" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -197,6 +206,9 @@
       <c r="F3" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -211,6 +223,9 @@
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -225,6 +240,9 @@
       <c r="F5" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -239,6 +257,9 @@
       <c r="F6" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -253,6 +274,9 @@
       <c r="F7" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -267,6 +291,9 @@
       <c r="F8" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -281,6 +308,9 @@
       <c r="F9" s="0" t="n">
         <v>79</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>436</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -295,6 +325,9 @@
       <c r="F10" s="0" t="n">
         <v>157</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>602</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -309,6 +342,9 @@
       <c r="F11" s="0" t="n">
         <v>229</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <v>833</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -326,6 +362,9 @@
       <c r="F12" s="0" t="n">
         <v>323</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <v>977</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -343,6 +382,9 @@
       <c r="F13" s="0" t="n">
         <v>470</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <v>1261</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -360,6 +402,9 @@
       <c r="F14" s="0" t="n">
         <v>655</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <v>1766</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -377,6 +422,9 @@
       <c r="F15" s="0" t="n">
         <v>889</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <v>2337</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -394,6 +442,9 @@
       <c r="F16" s="0" t="n">
         <v>1128</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <v>3150</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -411,6 +462,9 @@
       <c r="F17" s="0" t="n">
         <v>1701</v>
       </c>
+      <c r="G17" s="0" t="n">
+        <v>3736</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
@@ -428,6 +482,9 @@
       <c r="F18" s="0" t="n">
         <v>2036</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <v>4335</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -448,6 +505,9 @@
       <c r="F19" s="0" t="n">
         <v>2502</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <v>5186</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -468,6 +528,9 @@
       <c r="F20" s="0" t="n">
         <v>3089</v>
       </c>
+      <c r="G20" s="0" t="n">
+        <v>5621</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -488,6 +551,9 @@
       <c r="F21" s="0" t="n">
         <v>3858</v>
       </c>
+      <c r="G21" s="0" t="n">
+        <v>6284</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -508,6 +574,9 @@
       <c r="F22" s="0" t="n">
         <v>4636</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <v>6593</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -528,6 +597,9 @@
       <c r="F23" s="0" t="n">
         <v>5883</v>
       </c>
+      <c r="G23" s="0" t="n">
+        <v>7041</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -548,6 +620,9 @@
       <c r="F24" s="0" t="n">
         <v>7375</v>
       </c>
+      <c r="G24" s="0" t="n">
+        <v>7313</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -568,6 +643,9 @@
       <c r="F25" s="0" t="n">
         <v>9172</v>
       </c>
+      <c r="G25" s="0" t="n">
+        <v>7478</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -588,6 +666,9 @@
       <c r="F26" s="0" t="n">
         <v>10149</v>
       </c>
+      <c r="G26" s="0" t="n">
+        <v>7513</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -608,6 +689,9 @@
       <c r="F27" s="0" t="n">
         <v>12462</v>
       </c>
+      <c r="G27" s="0" t="n">
+        <v>7755</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -628,6 +712,9 @@
       <c r="F28" s="0" t="n">
         <v>15113</v>
       </c>
+      <c r="G28" s="0" t="n">
+        <v>7869</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -648,6 +735,9 @@
       <c r="F29" s="0" t="n">
         <v>17660</v>
       </c>
+      <c r="G29" s="0" t="n">
+        <v>7979</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -668,6 +758,9 @@
       <c r="F30" s="0" t="n">
         <v>21157</v>
       </c>
+      <c r="G30" s="0" t="n">
+        <v>8086</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -688,6 +781,9 @@
       <c r="F31" s="0" t="n">
         <v>24747</v>
       </c>
+      <c r="G31" s="0" t="n">
+        <v>8162</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -708,6 +804,9 @@
       <c r="F32" s="0" t="n">
         <v>27980</v>
       </c>
+      <c r="G32" s="0" t="n">
+        <v>8236</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -728,6 +827,9 @@
       <c r="F33" s="0" t="n">
         <v>31506</v>
       </c>
+      <c r="G33" s="0" t="n">
+        <v>8320</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -748,6 +850,9 @@
       <c r="F34" s="0" t="n">
         <v>35713</v>
       </c>
+      <c r="G34" s="0" t="n">
+        <v>8413</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -768,6 +873,9 @@
       <c r="F35" s="0" t="n">
         <v>41035</v>
       </c>
+      <c r="G35" s="0" t="n">
+        <v>8565</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -788,6 +896,9 @@
       <c r="F36" s="0" t="n">
         <v>47021</v>
       </c>
+      <c r="G36" s="0" t="n">
+        <v>8652</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -808,6 +919,9 @@
       <c r="F37" s="0" t="n">
         <v>53578</v>
       </c>
+      <c r="G37" s="0" t="n">
+        <v>8799</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -815,6 +929,21 @@
       </c>
       <c r="B38" s="0" t="n">
         <v>37</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>746</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1546</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>28768</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>59138</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>8897</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/casos_pais.xlsx
+++ b/casos_pais.xlsx
@@ -144,8 +144,12 @@
   </sheetPr>
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -953,6 +957,21 @@
       <c r="B39" s="0" t="n">
         <v>38</v>
       </c>
+      <c r="C39" s="0" t="n">
+        <v>922</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1924</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>35136</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>63927</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>8961</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">

--- a/casos_pais.xlsx
+++ b/casos_pais.xlsx
@@ -145,11 +145,11 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="D40" activeCellId="0" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="G41" activeCellId="0" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -980,6 +980,21 @@
       <c r="B40" s="0" t="n">
         <v>39</v>
       </c>
+      <c r="C40" s="0" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>2247</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>42058</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>69176</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>9037</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">

--- a/casos_pais.xlsx
+++ b/casos_pais.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Corea.del.Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEUU</t>
   </si>
 </sst>
 </file>
@@ -142,14 +145,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="G41" activeCellId="0" sqref="G41"/>
+      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -179,6 +182,9 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -196,6 +202,9 @@
       <c r="G2" s="0" t="n">
         <v>28</v>
       </c>
+      <c r="H2" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -213,6 +222,9 @@
       <c r="G3" s="0" t="n">
         <v>29</v>
       </c>
+      <c r="H3" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -230,6 +242,9 @@
       <c r="G4" s="0" t="n">
         <v>30</v>
       </c>
+      <c r="H4" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -247,6 +262,9 @@
       <c r="G5" s="0" t="n">
         <v>31</v>
       </c>
+      <c r="H5" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -264,6 +282,9 @@
       <c r="G6" s="0" t="n">
         <v>58</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -281,6 +302,9 @@
       <c r="G7" s="0" t="n">
         <v>111</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -298,6 +322,9 @@
       <c r="G8" s="0" t="n">
         <v>209</v>
       </c>
+      <c r="H8" s="0" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -315,6 +342,9 @@
       <c r="G9" s="0" t="n">
         <v>436</v>
       </c>
+      <c r="H9" s="0" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -332,6 +362,9 @@
       <c r="G10" s="0" t="n">
         <v>602</v>
       </c>
+      <c r="H10" s="0" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -349,6 +382,9 @@
       <c r="G11" s="0" t="n">
         <v>833</v>
       </c>
+      <c r="H11" s="0" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -369,6 +405,9 @@
       <c r="G12" s="0" t="n">
         <v>977</v>
       </c>
+      <c r="H12" s="0" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -389,6 +428,9 @@
       <c r="G13" s="0" t="n">
         <v>1261</v>
       </c>
+      <c r="H13" s="0" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -409,6 +451,9 @@
       <c r="G14" s="0" t="n">
         <v>1766</v>
       </c>
+      <c r="H14" s="0" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -429,6 +474,9 @@
       <c r="G15" s="0" t="n">
         <v>2337</v>
       </c>
+      <c r="H15" s="0" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -449,6 +497,9 @@
       <c r="G16" s="0" t="n">
         <v>3150</v>
       </c>
+      <c r="H16" s="0" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -469,6 +520,9 @@
       <c r="G17" s="0" t="n">
         <v>3736</v>
       </c>
+      <c r="H17" s="0" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
@@ -489,6 +543,9 @@
       <c r="G18" s="0" t="n">
         <v>4335</v>
       </c>
+      <c r="H18" s="0" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -512,6 +569,9 @@
       <c r="G19" s="0" t="n">
         <v>5186</v>
       </c>
+      <c r="H19" s="0" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -535,6 +595,9 @@
       <c r="G20" s="0" t="n">
         <v>5621</v>
       </c>
+      <c r="H20" s="0" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -558,6 +621,9 @@
       <c r="G21" s="0" t="n">
         <v>6284</v>
       </c>
+      <c r="H21" s="0" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -581,6 +647,9 @@
       <c r="G22" s="0" t="n">
         <v>6593</v>
       </c>
+      <c r="H22" s="0" t="n">
+        <v>319</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -604,6 +673,9 @@
       <c r="G23" s="0" t="n">
         <v>7041</v>
       </c>
+      <c r="H23" s="0" t="n">
+        <v>435</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -627,6 +699,9 @@
       <c r="G24" s="0" t="n">
         <v>7313</v>
       </c>
+      <c r="H24" s="0" t="n">
+        <v>541</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -650,6 +725,9 @@
       <c r="G25" s="0" t="n">
         <v>7478</v>
       </c>
+      <c r="H25" s="0" t="n">
+        <v>704</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -673,6 +751,9 @@
       <c r="G26" s="0" t="n">
         <v>7513</v>
       </c>
+      <c r="H26" s="0" t="n">
+        <v>994</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -696,6 +777,9 @@
       <c r="G27" s="0" t="n">
         <v>7755</v>
       </c>
+      <c r="H27" s="0" t="n">
+        <v>1301</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -719,6 +803,9 @@
       <c r="G28" s="0" t="n">
         <v>7869</v>
       </c>
+      <c r="H28" s="0" t="n">
+        <v>1630</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -742,6 +829,9 @@
       <c r="G29" s="0" t="n">
         <v>7979</v>
       </c>
+      <c r="H29" s="0" t="n">
+        <v>2183</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -765,6 +855,9 @@
       <c r="G30" s="0" t="n">
         <v>8086</v>
       </c>
+      <c r="H30" s="0" t="n">
+        <v>2770</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -788,6 +881,9 @@
       <c r="G31" s="0" t="n">
         <v>8162</v>
       </c>
+      <c r="H31" s="0" t="n">
+        <v>3613</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -811,6 +907,9 @@
       <c r="G32" s="0" t="n">
         <v>8236</v>
       </c>
+      <c r="H32" s="0" t="n">
+        <v>4596</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -834,6 +933,9 @@
       <c r="G33" s="0" t="n">
         <v>8320</v>
       </c>
+      <c r="H33" s="0" t="n">
+        <v>6344</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -857,6 +959,9 @@
       <c r="G34" s="0" t="n">
         <v>8413</v>
       </c>
+      <c r="H34" s="0" t="n">
+        <v>9197</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -880,6 +985,9 @@
       <c r="G35" s="0" t="n">
         <v>8565</v>
       </c>
+      <c r="H35" s="0" t="n">
+        <v>13779</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -903,6 +1011,9 @@
       <c r="G36" s="0" t="n">
         <v>8652</v>
       </c>
+      <c r="H36" s="0" t="n">
+        <v>19367</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -926,6 +1037,9 @@
       <c r="G37" s="0" t="n">
         <v>8799</v>
       </c>
+      <c r="H37" s="0" t="n">
+        <v>24192</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -949,6 +1063,9 @@
       <c r="G38" s="0" t="n">
         <v>8897</v>
       </c>
+      <c r="H38" s="0" t="n">
+        <v>33592</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
@@ -972,6 +1089,9 @@
       <c r="G39" s="0" t="n">
         <v>8961</v>
       </c>
+      <c r="H39" s="0" t="n">
+        <v>43781</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -995,6 +1115,9 @@
       <c r="G40" s="0" t="n">
         <v>9037</v>
       </c>
+      <c r="H40" s="0" t="n">
+        <v>54856</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -1002,6 +1125,24 @@
       </c>
       <c r="B41" s="0" t="n">
         <v>40</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1306</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>2554</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>49515</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>74386</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>9137</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>68211</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/casos_pais.xlsx
+++ b/casos_pais.xlsx
@@ -148,11 +148,11 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="H42" activeCellId="0" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1152,6 +1152,24 @@
       <c r="B42" s="0" t="n">
         <v>41</v>
       </c>
+      <c r="C42" s="0" t="n">
+        <v>1610</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>2985</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>57786</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>80589</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>9241</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>85436</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">

--- a/casos_pais.xlsx
+++ b/casos_pais.xlsx
@@ -152,7 +152,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="H42" activeCellId="0" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="G44" activeCellId="0" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1178,6 +1178,24 @@
       <c r="B43" s="0" t="n">
         <v>42</v>
       </c>
+      <c r="C43" s="0" t="n">
+        <v>1909</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>3417</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>65719</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>86498</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>9332</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>104126</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">

--- a/casos_pais.xlsx
+++ b/casos_pais.xlsx
@@ -152,7 +152,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="G44" activeCellId="0" sqref="G44"/>
+      <selection pane="bottomRight" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1204,6 +1204,24 @@
       <c r="B44" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="C44" s="0" t="n">
+        <v>2139</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>3904</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>73325</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>92472</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>9478</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>123578</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">

--- a/casos_pais.xlsx
+++ b/casos_pais.xlsx
@@ -148,11 +148,11 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="G45" activeCellId="0" sqref="G45"/>
+      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="H46" activeCellId="0" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1230,6 +1230,24 @@
       <c r="B45" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="C45" s="0" t="n">
+        <v>2449</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>4256</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>81110</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>97689</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>9583</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>143491</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">

--- a/casos_pais.xlsx
+++ b/casos_pais.xlsx
@@ -148,11 +148,11 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="H46" activeCellId="0" sqref="H46"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1256,6 +1256,24 @@
       <c r="B46" s="0" t="n">
         <v>45</v>
       </c>
+      <c r="C46" s="0" t="n">
+        <v>2738</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>4630</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>87956</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>101739</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>9661</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>163788</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -1263,6 +1281,24 @@
       </c>
       <c r="B47" s="0" t="n">
         <v>46</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>3031</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>5717</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>95923</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>105792</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>9786</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>188530</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/casos_pais.xlsx
+++ b/casos_pais.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">EEUU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
   </si>
 </sst>
 </file>
@@ -145,14 +148,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="E47" activeCellId="0" sqref="E47"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="H51" activeCellId="0" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -185,6 +188,9 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -884,6 +890,9 @@
       <c r="H31" s="0" t="n">
         <v>3613</v>
       </c>
+      <c r="I31" s="0" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -910,6 +919,9 @@
       <c r="H32" s="0" t="n">
         <v>4596</v>
       </c>
+      <c r="I32" s="0" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -936,6 +948,9 @@
       <c r="H33" s="0" t="n">
         <v>6344</v>
       </c>
+      <c r="I33" s="0" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -988,6 +1003,9 @@
       <c r="H35" s="0" t="n">
         <v>13779</v>
       </c>
+      <c r="I35" s="0" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -1014,6 +1032,9 @@
       <c r="H36" s="0" t="n">
         <v>19367</v>
       </c>
+      <c r="I36" s="0" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -1040,6 +1061,9 @@
       <c r="H37" s="0" t="n">
         <v>24192</v>
       </c>
+      <c r="I37" s="0" t="n">
+        <v>532</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -1066,6 +1090,9 @@
       <c r="H38" s="0" t="n">
         <v>33592</v>
       </c>
+      <c r="I38" s="0" t="n">
+        <v>789</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
@@ -1092,6 +1119,9 @@
       <c r="H39" s="0" t="n">
         <v>43781</v>
       </c>
+      <c r="I39" s="0" t="n">
+        <v>981</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -1118,6 +1148,9 @@
       <c r="H40" s="0" t="n">
         <v>54856</v>
       </c>
+      <c r="I40" s="0" t="n">
+        <v>1082</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -1144,6 +1177,9 @@
       <c r="H41" s="0" t="n">
         <v>68211</v>
       </c>
+      <c r="I41" s="0" t="n">
+        <v>1211</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -1170,6 +1206,9 @@
       <c r="H42" s="0" t="n">
         <v>85436</v>
       </c>
+      <c r="I42" s="0" t="n">
+        <v>1403</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
@@ -1222,6 +1261,9 @@
       <c r="H44" s="0" t="n">
         <v>123578</v>
       </c>
+      <c r="I44" s="0" t="n">
+        <v>1835</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
@@ -1248,6 +1290,9 @@
       <c r="H45" s="0" t="n">
         <v>143491</v>
       </c>
+      <c r="I45" s="0" t="n">
+        <v>1924</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
@@ -1274,6 +1319,9 @@
       <c r="H46" s="0" t="n">
         <v>163788</v>
       </c>
+      <c r="I46" s="0" t="n">
+        <v>1966</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -1300,6 +1348,9 @@
       <c r="H47" s="0" t="n">
         <v>188530</v>
       </c>
+      <c r="I47" s="0" t="n">
+        <v>2302</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
@@ -1308,6 +1359,24 @@
       <c r="B48" s="0" t="n">
         <v>47</v>
       </c>
+      <c r="C48" s="0" t="n">
+        <v>3404</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>6880</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>104118</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>110574</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>9887</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>215003</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
@@ -1316,6 +1385,27 @@
       <c r="B49" s="0" t="n">
         <v>48</v>
       </c>
+      <c r="C49" s="0" t="n">
+        <v>3737</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>8044</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>112065</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>115242</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>9976</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>244877</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>3163</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
@@ -1324,6 +1414,24 @@
       <c r="B50" s="0" t="n">
         <v>49</v>
       </c>
+      <c r="C50" s="0" t="n">
+        <v>4161</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>9194</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>119199</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>119827</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>10062</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>277161</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
@@ -1331,6 +1439,9 @@
       </c>
       <c r="B51" s="0" t="n">
         <v>50</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>3465</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
